--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E467"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10076,6 +10076,153 @@
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>361.3742857142857</v>
+      </c>
+      <c r="C468" t="n">
+        <v>372.1342857142857</v>
+      </c>
+      <c r="D468" t="n">
+        <v>369.7966666666667</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>362.5142857142857</v>
+      </c>
+      <c r="C469" t="n">
+        <v>373.3642857142857</v>
+      </c>
+      <c r="D469" t="n">
+        <v>374.6233333333333</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>366.3814285714286</v>
+      </c>
+      <c r="C470" t="n">
+        <v>379.9214285714286</v>
+      </c>
+      <c r="D470" t="n">
+        <v>380.01</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>375.2271428571429</v>
+      </c>
+      <c r="C471" t="n">
+        <v>379.4071428571429</v>
+      </c>
+      <c r="D471" t="n">
+        <v>384.11</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>374.7385714285714</v>
+      </c>
+      <c r="C472" t="n">
+        <v>381.2885714285715</v>
+      </c>
+      <c r="D472" t="n">
+        <v>389.6733333333333</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>379.02</v>
+      </c>
+      <c r="C473" t="n">
+        <v>378.74</v>
+      </c>
+      <c r="D473" t="n">
+        <v>385.3633333333333</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>355.6457142857143</v>
+      </c>
+      <c r="C474" t="n">
+        <v>375.8657142857143</v>
+      </c>
+      <c r="D474" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="E474" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10092,7 +10239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B558"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15680,6 +15827,96 @@
       </c>
       <c r="B558" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -15848,28 +16085,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1324345389671878</v>
+        <v>0.09322361790723295</v>
       </c>
       <c r="J2" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="K2" t="n">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01753989244559206</v>
+        <v>0.008501175954284901</v>
       </c>
       <c r="M2" t="n">
-        <v>5.546402107480785</v>
+        <v>5.675809303947475</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51004854312549</v>
+        <v>56.18817444942309</v>
       </c>
       <c r="O2" t="n">
-        <v>7.315056291179548</v>
+        <v>7.495877163442787</v>
       </c>
       <c r="P2" t="n">
-        <v>377.4656316906</v>
+        <v>377.838437390856</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15925,28 +16162,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2524405244022958</v>
+        <v>0.2252590756621779</v>
       </c>
       <c r="J3" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="K3" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05984151016249228</v>
+        <v>0.0485059889356062</v>
       </c>
       <c r="M3" t="n">
-        <v>5.861387848003572</v>
+        <v>5.921230098032998</v>
       </c>
       <c r="N3" t="n">
-        <v>55.65853025956888</v>
+        <v>56.23907324499182</v>
       </c>
       <c r="O3" t="n">
-        <v>7.460464480149267</v>
+        <v>7.499271514286693</v>
       </c>
       <c r="P3" t="n">
-        <v>380.1309591120415</v>
+        <v>380.3880930157575</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16002,28 +16239,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04864625785670713</v>
+        <v>0.02051005799036742</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002073987899968932</v>
+        <v>0.0003692531923878972</v>
       </c>
       <c r="M4" t="n">
-        <v>6.170827008480482</v>
+        <v>6.221800378360888</v>
       </c>
       <c r="N4" t="n">
-        <v>63.40520436746284</v>
+        <v>64.47105532445489</v>
       </c>
       <c r="O4" t="n">
-        <v>7.962738496739852</v>
+        <v>8.02938698310493</v>
       </c>
       <c r="P4" t="n">
-        <v>387.781917716739</v>
+        <v>388.0475699822081</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16060,7 +16297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E467"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28341,6 +28578,195 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-35.020588830885806,173.86242517242155</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-35.020941274037675,173.86320661684218</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-35.02124140245265,173.86400793288118</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-35.02058053245811,173.8624325460644</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-35.02093161543642,173.8632132428924</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-35.021201245803155,173.8640283279293</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-35.0205523822746,173.86245755915013</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-35.02088012532614,173.86324856640937</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-35.021156430090855,173.86405108923063</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-35.02048799144068,173.86251477409408</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-35.02088416376653,173.86324579593906</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-35.021122319118874,173.8640684137196</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-35.020491547911845,173.8625116139687</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-35.020869389805135,173.86325593124172</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-35.02107603357656,173.86409192147917</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-35.02046038199073,173.86253930663722</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-35.020889402521036,173.86324220202295</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-35.02111189169932,173.8640737096581</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-35.02063053099842,173.86238811938173</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-35.02091197291405,173.86322671816515</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-35.02121225560311,173.864022736195</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -15930,7 +15930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16021,35 +16021,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16108,27 +16113,28 @@
       <c r="P2" t="n">
         <v>377.838437390856</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.8600876899049 -35.02321936881577, 173.86608266313004 -35.01647236786516)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.8600876899049</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.02321936881577</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.86608266313</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.01647236786516</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.8630851765175</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.01984586834047</v>
       </c>
     </row>
@@ -16185,27 +16191,28 @@
       <c r="P3" t="n">
         <v>380.3880930157575</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.86120184646325 -35.02386345018848, 173.86619396955265 -35.01658643274876)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.8612018464632</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.02386345018848</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.8661939695527</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.01658643274876</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.863697908008</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.02022494146862</v>
       </c>
     </row>
@@ -16262,27 +16269,28 @@
       <c r="P4" t="n">
         <v>388.0475699822081</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.86244530123324 -35.02431800735342, 173.86636044506184 -35.016609167521025)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.8624453012332</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.02431800735342</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.8663604450618</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.01660916752103</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.8644028731475</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.02046358743722</v>
       </c>
     </row>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10223,6 +10223,109 @@
         <v>373.3</v>
       </c>
       <c r="E474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>376.28</v>
+      </c>
+      <c r="C475" t="n">
+        <v>385.06</v>
+      </c>
+      <c r="D475" t="n">
+        <v>394.6133333333333</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="n">
+        <v>385.6328571428572</v>
+      </c>
+      <c r="D476" t="n">
+        <v>386.8633333333333</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>363.9757142857143</v>
+      </c>
+      <c r="C477" t="n">
+        <v>365.8557142857143</v>
+      </c>
+      <c r="D477" t="n">
+        <v>366.7233333333333</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>352.0014285714286</v>
+      </c>
+      <c r="C478" t="n">
+        <v>352.6814285714286</v>
+      </c>
+      <c r="D478" t="n">
+        <v>363.4866666666667</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>380.04</v>
+      </c>
+      <c r="C479" t="n">
+        <v>392.46</v>
+      </c>
+      <c r="D479" t="n">
+        <v>394.7966666666667</v>
+      </c>
+      <c r="E479" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10239,7 +10342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15917,6 +16020,56 @@
       </c>
       <c r="B567" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -16090,28 +16243,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09322361790723295</v>
+        <v>0.07230756668779362</v>
       </c>
       <c r="J2" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="K2" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008501175954284901</v>
+        <v>0.005019013967370478</v>
       </c>
       <c r="M2" t="n">
-        <v>5.675809303947475</v>
+        <v>5.746345874904795</v>
       </c>
       <c r="N2" t="n">
-        <v>56.18817444942309</v>
+        <v>58.04107483456694</v>
       </c>
       <c r="O2" t="n">
-        <v>7.495877163442787</v>
+        <v>7.618469323595583</v>
       </c>
       <c r="P2" t="n">
-        <v>377.838437390856</v>
+        <v>378.0399916216578</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16168,28 +16321,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2252590756621779</v>
+        <v>0.204897716206636</v>
       </c>
       <c r="J3" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="K3" t="n">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0485059889356062</v>
+        <v>0.039046483044333</v>
       </c>
       <c r="M3" t="n">
-        <v>5.921230098032998</v>
+        <v>5.998974397831079</v>
       </c>
       <c r="N3" t="n">
-        <v>56.23907324499182</v>
+        <v>59.05951909478318</v>
       </c>
       <c r="O3" t="n">
-        <v>7.499271514286693</v>
+        <v>7.685019134314707</v>
       </c>
       <c r="P3" t="n">
-        <v>380.3880930157575</v>
+        <v>380.5834698909808</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16246,28 +16399,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02051005799036742</v>
+        <v>0.005163825049393453</v>
       </c>
       <c r="J4" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="K4" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003692531923878972</v>
+        <v>2.300750541683882e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.221800378360888</v>
+        <v>6.287338044964875</v>
       </c>
       <c r="N4" t="n">
-        <v>64.47105532445489</v>
+        <v>66.38928642571075</v>
       </c>
       <c r="O4" t="n">
-        <v>8.02938698310493</v>
+        <v>8.147962102618713</v>
       </c>
       <c r="P4" t="n">
-        <v>388.0475699822081</v>
+        <v>388.194685837028</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16305,7 +16458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28775,6 +28928,137 @@
         </is>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-35.02048032734902,173.86252158407098</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-35.02083977457256,173.8632762480107</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-35.02103493400794,173.86411279533374</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-35.020835276197914,173.8632793340035</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-35.02109941207453,173.8640800478807</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-35.0205698942475,173.86244199873974</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-35.020990576648366,173.86317279394856</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-35.0212669718092,173.86399494652125</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-35.02065705891965,173.86236454771523</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-35.02109402796665,173.86310182345954</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-35.021293900056286,173.86398126998827</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-35.020452957075676,173.8625459040867</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-35.02078166588679,173.86331611193194</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-35.02103340872022,173.86411357000406</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10328,6 +10328,69 @@
       <c r="E479" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>377.84</v>
+      </c>
+      <c r="C480" t="n">
+        <v>377.68</v>
+      </c>
+      <c r="D480" t="n">
+        <v>376.9833333333333</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>382.2514285714286</v>
+      </c>
+      <c r="C481" t="n">
+        <v>395.7614285714286</v>
+      </c>
+      <c r="D481" t="n">
+        <v>394.4366666666667</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>387.4714285714285</v>
+      </c>
+      <c r="C482" t="n">
+        <v>389.3214285714286</v>
+      </c>
+      <c r="D482" t="n">
+        <v>391.7233333333333</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10342,7 +10405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16070,6 +16133,36 @@
       </c>
       <c r="B572" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -16243,28 +16336,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07230756668779362</v>
+        <v>0.07565208760079102</v>
       </c>
       <c r="J2" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K2" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005019013967370478</v>
+        <v>0.00555479914316126</v>
       </c>
       <c r="M2" t="n">
-        <v>5.746345874904795</v>
+        <v>5.732157588298657</v>
       </c>
       <c r="N2" t="n">
-        <v>58.04107483456694</v>
+        <v>57.80430242596227</v>
       </c>
       <c r="O2" t="n">
-        <v>7.618469323595583</v>
+        <v>7.602914074613909</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0399916216578</v>
+        <v>378.0075876908232</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16321,28 +16414,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.204897716206636</v>
+        <v>0.2070310243538131</v>
       </c>
       <c r="J3" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K3" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.039046483044333</v>
+        <v>0.0400931263215667</v>
       </c>
       <c r="M3" t="n">
-        <v>5.998974397831079</v>
+        <v>6.00567846842169</v>
       </c>
       <c r="N3" t="n">
-        <v>59.05951909478318</v>
+        <v>59.05839171414311</v>
       </c>
       <c r="O3" t="n">
-        <v>7.685019134314707</v>
+        <v>7.684945784723736</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5834698909808</v>
+        <v>380.5628519192755</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16399,28 +16492,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005163825049393453</v>
+        <v>0.00440702062621026</v>
       </c>
       <c r="J4" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K4" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L4" t="n">
-        <v>2.300750541683882e-05</v>
+        <v>1.688648767284029e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.287338044964875</v>
+        <v>6.291772113504213</v>
       </c>
       <c r="N4" t="n">
-        <v>66.38928642571075</v>
+        <v>66.3409640068936</v>
       </c>
       <c r="O4" t="n">
-        <v>8.147962102618713</v>
+        <v>8.144996255793712</v>
       </c>
       <c r="P4" t="n">
-        <v>388.194685837028</v>
+        <v>388.2019215609654</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16458,7 +16551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29059,6 +29152,87 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-35.02046897159789,173.8625316742922</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-35.02089772619503,173.86323649177422</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-35.02118161119704,173.8640383000866</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-35.0204368593595,173.8625602077966</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-35.02075574133192,173.86333389676372</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-35.02103640383063,173.86411204883322</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-35.020398861255465,173.86259397118275</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-35.02080631159928,173.86329920440303</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-35.021058978087986,173.86410058370876</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10391,6 +10391,27 @@
       <c r="E482" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>374.2014285714286</v>
+      </c>
+      <c r="C483" t="n">
+        <v>388.2114285714285</v>
+      </c>
+      <c r="D483" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10405,7 +10426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B575"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16163,6 +16184,16 @@
       </c>
       <c r="B575" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -16336,28 +16367,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07565208760079102</v>
+        <v>0.07320978987075824</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00555479914316126</v>
+        <v>0.00522138181412346</v>
       </c>
       <c r="M2" t="n">
-        <v>5.732157588298657</v>
+        <v>5.734009999139427</v>
       </c>
       <c r="N2" t="n">
-        <v>57.80430242596227</v>
+        <v>57.74963213669955</v>
       </c>
       <c r="O2" t="n">
-        <v>7.602914074613909</v>
+        <v>7.599317873118584</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0075876908232</v>
+        <v>378.0312912113175</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16414,28 +16445,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2070310243538131</v>
+        <v>0.2079748512046978</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0400931263215667</v>
+        <v>0.04060940161524451</v>
       </c>
       <c r="M3" t="n">
-        <v>6.00567846842169</v>
+        <v>5.997118790527367</v>
       </c>
       <c r="N3" t="n">
-        <v>59.05839171414311</v>
+        <v>58.94072892593812</v>
       </c>
       <c r="O3" t="n">
-        <v>7.684945784723736</v>
+        <v>7.677286560102997</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5628519192755</v>
+        <v>380.5537265771762</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16492,28 +16523,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00440702062621026</v>
+        <v>0.004067969149171264</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L4" t="n">
-        <v>1.688648767284029e-05</v>
+        <v>1.445282276424376e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.291772113504213</v>
+        <v>6.279562127808553</v>
       </c>
       <c r="N4" t="n">
-        <v>66.3409640068936</v>
+        <v>66.19468298580044</v>
       </c>
       <c r="O4" t="n">
-        <v>8.144996255793712</v>
+        <v>8.136011491252974</v>
       </c>
       <c r="P4" t="n">
-        <v>388.2019215609654</v>
+        <v>388.20519448173</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16551,7 +16582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29233,6 +29264,33 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-35.02049545795022,173.86250813967848</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-35.020815027902145,173.86329322481487</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-35.021094115167024,173.86408273810343</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E483"/>
+  <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10410,6 +10410,69 @@
         <v>387.5</v>
       </c>
       <c r="E483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>385.6628571428572</v>
+      </c>
+      <c r="C484" t="n">
+        <v>386.5728571428572</v>
+      </c>
+      <c r="D484" t="n">
+        <v>387.59</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>387.5085714285714</v>
+      </c>
+      <c r="C485" t="n">
+        <v>392.2085714285714</v>
+      </c>
+      <c r="D485" t="n">
+        <v>391.9866666666667</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>376.0642857142857</v>
+      </c>
+      <c r="C486" t="n">
+        <v>384.3242857142857</v>
+      </c>
+      <c r="D486" t="n">
+        <v>386.26</v>
+      </c>
+      <c r="E486" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10426,7 +10489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:B579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16194,6 +16257,36 @@
       </c>
       <c r="B576" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -16367,28 +16460,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07320978987075824</v>
+        <v>0.07714611419543342</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K2" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00522138181412346</v>
+        <v>0.005851225327915377</v>
       </c>
       <c r="M2" t="n">
-        <v>5.734009999139427</v>
+        <v>5.730999155327788</v>
       </c>
       <c r="N2" t="n">
-        <v>57.74963213669955</v>
+        <v>57.6002401271099</v>
       </c>
       <c r="O2" t="n">
-        <v>7.599317873118584</v>
+        <v>7.589482204150023</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0312912113175</v>
+        <v>377.9930858274615</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16445,28 +16538,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2079748512046978</v>
+        <v>0.2101165014800547</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04060940161524451</v>
+        <v>0.04187626187354376</v>
       </c>
       <c r="M3" t="n">
-        <v>5.997118790527367</v>
+        <v>5.975497931669756</v>
       </c>
       <c r="N3" t="n">
-        <v>58.94072892593812</v>
+        <v>58.6483061798533</v>
       </c>
       <c r="O3" t="n">
-        <v>7.677286560102997</v>
+        <v>7.658218211820117</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5537265771762</v>
+        <v>380.5330065929863</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16523,28 +16616,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004067969149171264</v>
+        <v>0.004436668050457866</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K4" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L4" t="n">
-        <v>1.445282276424376e-05</v>
+        <v>1.741144534850303e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.279562127808553</v>
+        <v>6.25217460949263</v>
       </c>
       <c r="N4" t="n">
-        <v>66.19468298580044</v>
+        <v>65.79567667841059</v>
       </c>
       <c r="O4" t="n">
-        <v>8.136011491252974</v>
+        <v>8.111453425768442</v>
       </c>
       <c r="P4" t="n">
-        <v>388.20519448173</v>
+        <v>388.201637778571</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16582,7 +16675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E483"/>
+  <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29291,6 +29384,87 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-35.02041202644525,173.8625822731986</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-35.0208278948249,173.86328439780144</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-35.02109336638952,173.8640831183967</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-35.0203985908803,173.86259421142566</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-35.02078364023617,173.863314757483</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-35.0210567872203,173.86410169641766</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-35.02048189760393,173.86252018881123</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-35.02084555178675,173.86327228470273</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-35.021104431657,173.86407749850693</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E486"/>
+  <dimension ref="A1:E491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10473,6 +10473,109 @@
         <v>386.26</v>
       </c>
       <c r="E486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>385.0828571428572</v>
+      </c>
+      <c r="C487" t="n">
+        <v>383.2028571428572</v>
+      </c>
+      <c r="D487" t="n">
+        <v>384.91</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>377.8342857142857</v>
+      </c>
+      <c r="C488" t="n">
+        <v>383.0842857142857</v>
+      </c>
+      <c r="D488" t="n">
+        <v>382.8733333333333</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>379.3371428571429</v>
+      </c>
+      <c r="C489" t="n">
+        <v>385.8871428571428</v>
+      </c>
+      <c r="D489" t="n">
+        <v>384.6533333333333</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="n">
+        <v>399.1985714285714</v>
+      </c>
+      <c r="D490" t="n">
+        <v>402.32</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>388.5114285714286</v>
+      </c>
+      <c r="C491" t="n">
+        <v>392.4714285714285</v>
+      </c>
+      <c r="D491" t="n">
+        <v>390.63</v>
+      </c>
+      <c r="E491" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10489,7 +10592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B579"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16287,6 +16390,56 @@
       </c>
       <c r="B579" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -16460,28 +16613,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07714611419543342</v>
+        <v>0.0815633522892685</v>
       </c>
       <c r="J2" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005851225327915377</v>
+        <v>0.006627997438695576</v>
       </c>
       <c r="M2" t="n">
-        <v>5.730999155327788</v>
+        <v>5.713928865753357</v>
       </c>
       <c r="N2" t="n">
-        <v>57.6002401271099</v>
+        <v>57.32407466744883</v>
       </c>
       <c r="O2" t="n">
-        <v>7.589482204150023</v>
+        <v>7.571266384657776</v>
       </c>
       <c r="P2" t="n">
-        <v>377.9930858274615</v>
+        <v>377.949984468598</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16538,28 +16691,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2101165014800547</v>
+        <v>0.2156207924220355</v>
       </c>
       <c r="J3" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04187626187354376</v>
+        <v>0.04454354603552546</v>
       </c>
       <c r="M3" t="n">
-        <v>5.975497931669756</v>
+        <v>5.963628239213359</v>
       </c>
       <c r="N3" t="n">
-        <v>58.6483061798533</v>
+        <v>58.51577594305539</v>
       </c>
       <c r="O3" t="n">
-        <v>7.658218211820117</v>
+        <v>7.649560506529469</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5330065929863</v>
+        <v>380.4793963199556</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16616,28 +16769,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004436668050457866</v>
+        <v>0.005976560907238452</v>
       </c>
       <c r="J4" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L4" t="n">
-        <v>1.741144534850303e-05</v>
+        <v>3.201254659523922e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.25217460949263</v>
+        <v>6.247029560027632</v>
       </c>
       <c r="N4" t="n">
-        <v>65.79567667841059</v>
+        <v>65.63598532901391</v>
       </c>
       <c r="O4" t="n">
-        <v>8.111453425768442</v>
+        <v>8.101603873864354</v>
       </c>
       <c r="P4" t="n">
-        <v>388.201637778571</v>
+        <v>388.1865544591683</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16675,7 +16828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E486"/>
+  <dimension ref="A1:E491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29465,6 +29618,137 @@
         </is>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-35.020416248456904,173.8625785217116</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-35.020854357831446,173.86326624354294</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-35.02111566331918,173.86407179410602</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-35.020469013194074,173.86253163733173</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-35.0208552889164,173.86326560479603</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-35.02113260787573,173.8640631882045</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-35.02045807340373,173.86254135794513</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-35.020833279413125,173.8632807038456</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-35.02111779872159,173.86407070956545</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-35.02072875107433,173.86335241267807</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-35.02097081645516,173.86414535963266</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-35.020391290750865,173.86260069798394</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-35.020781576143634,173.8633161734978</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-35.02106807434864,173.8640959638534</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E491"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10576,6 +10576,90 @@
         <v>390.63</v>
       </c>
       <c r="E491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>388.4057142857143</v>
+      </c>
+      <c r="C492" t="n">
+        <v>396.6557142857143</v>
+      </c>
+      <c r="D492" t="n">
+        <v>394.6433333333333</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>380.46</v>
+      </c>
+      <c r="C493" t="n">
+        <v>382.47</v>
+      </c>
+      <c r="D493" t="n">
+        <v>388.12</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>373.5414285714286</v>
+      </c>
+      <c r="C494" t="n">
+        <v>375.1814285714286</v>
+      </c>
+      <c r="D494" t="n">
+        <v>385.8866666666667</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>378.3385714285714</v>
+      </c>
+      <c r="C495" t="n">
+        <v>384.3785714285714</v>
+      </c>
+      <c r="D495" t="n">
+        <v>384.0466666666667</v>
+      </c>
+      <c r="E495" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10592,7 +10676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16440,6 +16524,46 @@
       </c>
       <c r="B584" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -16613,28 +16737,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0815633522892685</v>
+        <v>0.08173671943913967</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006627997438695576</v>
+        <v>0.006744528968713581</v>
       </c>
       <c r="M2" t="n">
-        <v>5.713928865753357</v>
+        <v>5.701239556452028</v>
       </c>
       <c r="N2" t="n">
-        <v>57.32407466744883</v>
+        <v>57.07950252930508</v>
       </c>
       <c r="O2" t="n">
-        <v>7.571266384657776</v>
+        <v>7.555097784231855</v>
       </c>
       <c r="P2" t="n">
-        <v>377.949984468598</v>
+        <v>377.9483716095038</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16691,28 +16815,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2156207924220355</v>
+        <v>0.2134363034899932</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K3" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04454354603552546</v>
+        <v>0.04400748005131805</v>
       </c>
       <c r="M3" t="n">
-        <v>5.963628239213359</v>
+        <v>5.970667758552174</v>
       </c>
       <c r="N3" t="n">
-        <v>58.51577594305539</v>
+        <v>58.54239434914752</v>
       </c>
       <c r="O3" t="n">
-        <v>7.649560506529469</v>
+        <v>7.65130017377096</v>
       </c>
       <c r="P3" t="n">
-        <v>380.4793963199556</v>
+        <v>380.5007981721059</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16769,28 +16893,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005976560907238452</v>
+        <v>0.005698442509723656</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K4" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L4" t="n">
-        <v>3.201254659523922e-05</v>
+        <v>2.953736131805496e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.247029560027632</v>
+        <v>6.221566476882772</v>
       </c>
       <c r="N4" t="n">
-        <v>65.63598532901391</v>
+        <v>65.20581751088029</v>
       </c>
       <c r="O4" t="n">
-        <v>8.101603873864354</v>
+        <v>8.075011920169548</v>
       </c>
       <c r="P4" t="n">
-        <v>388.1865544591683</v>
+        <v>388.1893537356494</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16828,7 +16952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E491"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29749,6 +29873,114 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-35.0203920602802,173.86260001421576</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-35.02074871892934,173.86333871428874</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-35.021034684415405,173.86411292209797</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-35.020449899757615,173.86254862068319</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-35.02086011260953,173.86326229562508</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-35.02108895692196,173.86408535790122</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-35.02050026230576,173.86250387073633</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-35.02091734628268,173.86322303189758</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-35.021107537696935,173.86407592099377</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-35.020465342332955,173.86253489909677</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-35.02084512550687,173.86327257714103</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-35.02112284603634,173.86406814610567</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10660,6 +10660,27 @@
         <v>384.0466666666667</v>
       </c>
       <c r="E495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>379.3485714285715</v>
+      </c>
+      <c r="C496" t="n">
+        <v>390.8285714285714</v>
+      </c>
+      <c r="D496" t="n">
+        <v>385.7633333333333</v>
+      </c>
+      <c r="E496" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10676,7 +10697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B588"/>
+  <dimension ref="A1:B589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16564,6 +16585,16 @@
       </c>
       <c r="B588" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -16737,28 +16768,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08173671943913967</v>
+        <v>0.08144229502074277</v>
       </c>
       <c r="J2" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K2" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006744528968713581</v>
+        <v>0.006725611591581915</v>
       </c>
       <c r="M2" t="n">
-        <v>5.701239556452028</v>
+        <v>5.690762021799672</v>
       </c>
       <c r="N2" t="n">
-        <v>57.07950252930508</v>
+        <v>56.95841720402868</v>
       </c>
       <c r="O2" t="n">
-        <v>7.555097784231855</v>
+        <v>7.547080044893434</v>
       </c>
       <c r="P2" t="n">
-        <v>377.9483716095038</v>
+        <v>377.951270215207</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16815,28 +16846,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2134363034899932</v>
+        <v>0.2152762730894441</v>
       </c>
       <c r="J3" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04400748005131805</v>
+        <v>0.04487930602756818</v>
       </c>
       <c r="M3" t="n">
-        <v>5.970667758552174</v>
+        <v>5.967391691767424</v>
       </c>
       <c r="N3" t="n">
-        <v>58.54239434914752</v>
+        <v>58.46572910363985</v>
       </c>
       <c r="O3" t="n">
-        <v>7.65130017377096</v>
+        <v>7.64628858359661</v>
       </c>
       <c r="P3" t="n">
-        <v>380.5007981721059</v>
+        <v>380.4827397320869</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16893,28 +16924,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005698442509723656</v>
+        <v>0.004688516110502455</v>
       </c>
       <c r="J4" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K4" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L4" t="n">
-        <v>2.953736131805496e-05</v>
+        <v>2.007621975952389e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.221566476882772</v>
+        <v>6.21345204567937</v>
       </c>
       <c r="N4" t="n">
-        <v>65.20581751088029</v>
+        <v>65.07893620984615</v>
       </c>
       <c r="O4" t="n">
-        <v>8.075011920169548</v>
+        <v>8.067151678866969</v>
       </c>
       <c r="P4" t="n">
-        <v>388.1893537356494</v>
+        <v>388.1992505641081</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16952,7 +16983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29981,6 +30012,33 @@
         </is>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-35.020457990211405,173.86254143186616</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-35.0207944767217,173.86330732340429</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-35.0211085637994,173.86407539985098</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10681,6 +10681,27 @@
         <v>385.7633333333333</v>
       </c>
       <c r="E496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>384.4771428571429</v>
+      </c>
+      <c r="C497" t="n">
+        <v>380.8171428571428</v>
+      </c>
+      <c r="D497" t="n">
+        <v>390.53</v>
+      </c>
+      <c r="E497" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10697,7 +10718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B589"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16595,6 +16616,16 @@
       </c>
       <c r="B589" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -16983,7 +17014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30039,6 +30070,33 @@
         </is>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-35.02042065765124,173.8625746039021</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-35.020873091708985,173.86325339164458</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-35.0210689063237,173.8640955413056</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -16799,28 +16799,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08144229502074277</v>
+        <v>0.08320846800203194</v>
       </c>
       <c r="J2" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K2" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006725611591581915</v>
+        <v>0.007044245844006536</v>
       </c>
       <c r="M2" t="n">
-        <v>5.690762021799672</v>
+        <v>5.686964769871606</v>
       </c>
       <c r="N2" t="n">
-        <v>56.95841720402868</v>
+        <v>56.87773345919562</v>
       </c>
       <c r="O2" t="n">
-        <v>7.547080044893434</v>
+        <v>7.541732788901741</v>
       </c>
       <c r="P2" t="n">
-        <v>377.951270215207</v>
+        <v>377.9338283242157</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16877,28 +16877,28 @@
         <v>0.0746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2152762730894441</v>
+        <v>0.2132300734766258</v>
       </c>
       <c r="J3" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K3" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04487930602756818</v>
+        <v>0.04420183915557085</v>
       </c>
       <c r="M3" t="n">
-        <v>5.967391691767424</v>
+        <v>5.96666748896845</v>
       </c>
       <c r="N3" t="n">
-        <v>58.46572910363985</v>
+        <v>58.4007605685952</v>
       </c>
       <c r="O3" t="n">
-        <v>7.64628858359661</v>
+        <v>7.642039032129789</v>
       </c>
       <c r="P3" t="n">
-        <v>380.4827397320869</v>
+        <v>380.5028876793972</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16955,28 +16955,28 @@
         <v>0.063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004688516110502455</v>
+        <v>0.00555415166334888</v>
       </c>
       <c r="J4" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K4" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L4" t="n">
-        <v>2.007621975952389e-05</v>
+        <v>2.82892564642534e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.21345204567937</v>
+        <v>6.204960145396939</v>
       </c>
       <c r="N4" t="n">
-        <v>65.07893620984615</v>
+        <v>64.94884059701364</v>
       </c>
       <c r="O4" t="n">
-        <v>8.067151678866969</v>
+        <v>8.05908435227065</v>
       </c>
       <c r="P4" t="n">
-        <v>388.1992505641081</v>
+        <v>388.1907399586194</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">

--- a/data/nzd0052/nzd0052.xlsx
+++ b/data/nzd0052/nzd0052.xlsx
@@ -16790,13 +16790,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0636</v>
+        <v>0.0677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0.08319294052378232</v>
@@ -16868,13 +16868,13 @@
         <v>0.5012316648606471</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0639</v>
+        <v>0.067</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0746</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>0.2132153183924905</v>
@@ -16946,13 +16946,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0537</v>
+        <v>0.0738</v>
       </c>
       <c r="H4" t="n">
-        <v>0.063</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.00555614298602454</v>
